--- a/Utilities/titles/VariableListing.xlsx
+++ b/Utilities/titles/VariableListing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cambridgeeconometrics-my.sharepoint.com/personal/pv_camecon_com/Documents/Documents/GitHub/FTT_StandAlone_new/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/ae476_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{71E47EE1-9518-4EAA-B54F-5632BB6D374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35541E01-653E-4048-B1E6-773B9B7B03B0}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{71E47EE1-9518-4EAA-B54F-5632BB6D374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF9B9CA-A8F3-41A5-A37A-112173F473B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2478,6 +2478,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2777,31 +2781,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:N365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H333" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A353" sqref="A353"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>259</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>258</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -3715,7 +3721,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>275</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3961,7 +3967,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>750</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>240</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -4242,7 +4248,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>759</v>
       </c>
@@ -4315,7 +4321,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>769</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>186</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>207</v>
       </c>
@@ -4479,7 +4485,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>763</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -4634,7 +4640,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -4675,7 +4681,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>765</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>241</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -4827,7 +4833,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>239</v>
       </c>
@@ -4868,7 +4874,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>757</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>767</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>208</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>761</v>
       </c>
@@ -5219,7 +5225,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>740</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>755</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>753</v>
       </c>
@@ -5312,7 +5318,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -5476,7 +5482,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -5517,7 +5523,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -5558,7 +5564,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5599,7 +5605,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -5681,7 +5687,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>204</v>
       </c>
@@ -5763,7 +5769,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -5804,7 +5810,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -5845,7 +5851,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -5968,7 +5974,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -6050,7 +6056,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>234</v>
       </c>
@@ -6091,7 +6097,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>224</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -6255,7 +6261,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>48</v>
       </c>
@@ -6296,7 +6302,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>57</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -6378,7 +6384,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>212</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>216</v>
       </c>
@@ -6460,7 +6466,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>236</v>
       </c>
@@ -6542,7 +6548,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>47</v>
       </c>
@@ -6583,7 +6589,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>72</v>
       </c>
@@ -6624,7 +6630,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -6706,7 +6712,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>222</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>64</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -6829,7 +6835,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>227</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>73</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -6952,7 +6958,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>59</v>
       </c>
@@ -6993,7 +6999,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>53</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>56</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -7116,7 +7122,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>191</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -7198,7 +7204,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -7280,7 +7286,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -7321,7 +7327,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>82</v>
       </c>
@@ -7362,7 +7368,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -7403,7 +7409,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>742</v>
       </c>
@@ -7435,12 +7441,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B116" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D116" t="s">
         <v>17</v>
@@ -7449,7 +7455,7 @@
         <v>313</v>
       </c>
       <c r="F116" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="G116" t="s">
         <v>17</v>
@@ -7458,21 +7464,21 @@
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B117" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="G117" t="s">
         <v>17</v>
@@ -7481,12 +7487,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B118" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -7495,7 +7501,7 @@
         <v>313</v>
       </c>
       <c r="F118" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="G118" t="s">
         <v>17</v>
@@ -7504,12 +7510,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -7518,27 +7524,33 @@
         <v>313</v>
       </c>
       <c r="F119" t="s">
-        <v>313</v>
+        <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H119" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>2014</v>
+      </c>
+      <c r="K119">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B120" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E120" t="s">
-        <v>313</v>
+        <v>17</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -7550,67 +7562,64 @@
         <v>315</v>
       </c>
       <c r="K120">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D121" t="s">
         <v>29</v>
       </c>
       <c r="E121" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
       </c>
       <c r="G121" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H121" t="s">
         <v>315</v>
       </c>
-      <c r="K121">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B122" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D122" t="s">
         <v>29</v>
       </c>
       <c r="E122" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="G122" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H122" t="s">
         <v>315</v>
       </c>
       <c r="K122">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
@@ -7627,25 +7636,22 @@
       <c r="H123" t="s">
         <v>315</v>
       </c>
-      <c r="J123">
-        <v>2014</v>
-      </c>
       <c r="K123">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B124" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
@@ -7660,12 +7666,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B125" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
@@ -7682,16 +7688,19 @@
       <c r="H125" t="s">
         <v>315</v>
       </c>
+      <c r="J125">
+        <v>2020</v>
+      </c>
       <c r="K125">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
@@ -7712,12 +7721,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
@@ -7738,12 +7747,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B128" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
@@ -7764,12 +7773,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B129" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -7790,12 +7799,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B130" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
@@ -7816,12 +7825,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
@@ -7830,19 +7839,19 @@
         <v>313</v>
       </c>
       <c r="F131" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H131" t="s">
         <v>315</v>
       </c>
       <c r="K131">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>351</v>
       </c>
@@ -7868,7 +7877,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>352</v>
       </c>
@@ -7894,7 +7903,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>353</v>
       </c>
@@ -7920,7 +7929,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>354</v>
       </c>
@@ -7946,7 +7955,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>355</v>
       </c>
@@ -7969,7 +7978,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>379</v>
       </c>
@@ -7995,7 +8004,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>356</v>
       </c>
@@ -8021,7 +8030,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>357</v>
       </c>
@@ -8047,7 +8056,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>358</v>
       </c>
@@ -8073,7 +8082,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>359</v>
       </c>
@@ -8099,7 +8108,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>360</v>
       </c>
@@ -8125,7 +8134,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>372</v>
       </c>
@@ -8151,7 +8160,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>361</v>
       </c>
@@ -8177,7 +8186,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>362</v>
       </c>
@@ -8203,7 +8212,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>478</v>
       </c>
@@ -8229,7 +8238,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>377</v>
       </c>
@@ -8258,7 +8267,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>363</v>
       </c>
@@ -8284,7 +8293,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>328</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>475</v>
       </c>
@@ -8336,7 +8345,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>399</v>
       </c>
@@ -8362,7 +8371,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -8388,7 +8397,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>320</v>
       </c>
@@ -8414,7 +8423,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>327</v>
       </c>
@@ -8440,7 +8449,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>394</v>
       </c>
@@ -8466,7 +8475,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>325</v>
       </c>
@@ -8489,7 +8498,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>398</v>
       </c>
@@ -8515,7 +8524,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>476</v>
       </c>
@@ -8541,7 +8550,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>401</v>
       </c>
@@ -8567,7 +8576,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>321</v>
       </c>
@@ -8596,7 +8605,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>385</v>
       </c>
@@ -8622,7 +8631,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>396</v>
       </c>
@@ -8648,7 +8657,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>387</v>
       </c>
@@ -8674,7 +8683,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>400</v>
       </c>
@@ -8700,7 +8709,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>389</v>
       </c>
@@ -8726,7 +8735,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -8749,7 +8758,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>709</v>
       </c>
@@ -8772,7 +8781,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>349</v>
       </c>
@@ -8813,7 +8822,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>324</v>
       </c>
@@ -8836,7 +8845,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>390</v>
       </c>
@@ -8862,7 +8871,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>712</v>
       </c>
@@ -8885,7 +8894,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>347</v>
       </c>
@@ -8908,7 +8917,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>392</v>
       </c>
@@ -8934,7 +8943,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>391</v>
       </c>
@@ -8960,7 +8969,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>397</v>
       </c>
@@ -8986,7 +8995,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>393</v>
       </c>
@@ -9012,7 +9021,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>381</v>
       </c>
@@ -9044,7 +9053,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>323</v>
       </c>
@@ -9070,7 +9079,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>319</v>
       </c>
@@ -9096,7 +9105,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>317</v>
       </c>
@@ -9122,7 +9131,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>388</v>
       </c>
@@ -9148,7 +9157,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>713</v>
       </c>
@@ -9174,7 +9183,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>322</v>
       </c>
@@ -9200,7 +9209,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>395</v>
       </c>
@@ -9226,7 +9235,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>326</v>
       </c>
@@ -9252,7 +9261,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>318</v>
       </c>
@@ -9278,7 +9287,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>496</v>
       </c>
@@ -9319,7 +9328,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>497</v>
       </c>
@@ -9363,7 +9372,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>498</v>
       </c>
@@ -9404,7 +9413,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>499</v>
       </c>
@@ -9445,7 +9454,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>500</v>
       </c>
@@ -9486,7 +9495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>501</v>
       </c>
@@ -9524,7 +9533,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>592</v>
       </c>
@@ -9562,7 +9571,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>502</v>
       </c>
@@ -9603,7 +9612,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>503</v>
       </c>
@@ -9641,7 +9650,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>504</v>
       </c>
@@ -9682,7 +9691,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>505</v>
       </c>
@@ -9723,7 +9732,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>506</v>
       </c>
@@ -9764,7 +9773,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>507</v>
       </c>
@@ -9805,7 +9814,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>567</v>
       </c>
@@ -9834,7 +9843,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>568</v>
       </c>
@@ -9863,7 +9872,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>508</v>
       </c>
@@ -9895,7 +9904,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>580</v>
       </c>
@@ -9924,7 +9933,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>581</v>
       </c>
@@ -9953,7 +9962,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>582</v>
       </c>
@@ -9982,7 +9991,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>509</v>
       </c>
@@ -10023,7 +10032,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>510</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>511</v>
       </c>
@@ -10108,7 +10117,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>512</v>
       </c>
@@ -10149,7 +10158,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>513</v>
       </c>
@@ -10190,7 +10199,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>514</v>
       </c>
@@ -10228,7 +10237,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>595</v>
       </c>
@@ -10266,7 +10275,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>515</v>
       </c>
@@ -10307,7 +10316,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>516</v>
       </c>
@@ -10345,7 +10354,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>517</v>
       </c>
@@ -10386,7 +10395,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>518</v>
       </c>
@@ -10427,7 +10436,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>519</v>
       </c>
@@ -10468,7 +10477,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>520</v>
       </c>
@@ -10509,7 +10518,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>569</v>
       </c>
@@ -10544,7 +10553,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>570</v>
       </c>
@@ -10579,7 +10588,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>521</v>
       </c>
@@ -10617,7 +10626,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>583</v>
       </c>
@@ -10646,7 +10655,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>584</v>
       </c>
@@ -10675,7 +10684,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>585</v>
       </c>
@@ -10704,7 +10713,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>524</v>
       </c>
@@ -10745,7 +10754,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>525</v>
       </c>
@@ -10789,7 +10798,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>526</v>
       </c>
@@ -10830,7 +10839,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>527</v>
       </c>
@@ -10871,7 +10880,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>528</v>
       </c>
@@ -10912,7 +10921,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>529</v>
       </c>
@@ -10950,7 +10959,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>596</v>
       </c>
@@ -10988,7 +10997,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>530</v>
       </c>
@@ -11029,7 +11038,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>531</v>
       </c>
@@ -11067,7 +11076,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>532</v>
       </c>
@@ -11108,7 +11117,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>533</v>
       </c>
@@ -11149,7 +11158,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>534</v>
       </c>
@@ -11190,7 +11199,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>535</v>
       </c>
@@ -11231,7 +11240,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>571</v>
       </c>
@@ -11266,7 +11275,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>572</v>
       </c>
@@ -11301,7 +11310,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>536</v>
       </c>
@@ -11339,7 +11348,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>586</v>
       </c>
@@ -11368,7 +11377,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>587</v>
       </c>
@@ -11397,7 +11406,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>588</v>
       </c>
@@ -11426,7 +11435,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>537</v>
       </c>
@@ -11467,7 +11476,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>538</v>
       </c>
@@ -11511,7 +11520,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>539</v>
       </c>
@@ -11552,7 +11561,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>540</v>
       </c>
@@ -11593,7 +11602,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>541</v>
       </c>
@@ -11634,7 +11643,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>542</v>
       </c>
@@ -11672,7 +11681,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>597</v>
       </c>
@@ -11710,7 +11719,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>543</v>
       </c>
@@ -11751,7 +11760,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>544</v>
       </c>
@@ -11789,7 +11798,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>545</v>
       </c>
@@ -11830,7 +11839,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>546</v>
       </c>
@@ -11871,7 +11880,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>547</v>
       </c>
@@ -11912,7 +11921,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>548</v>
       </c>
@@ -11953,7 +11962,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>573</v>
       </c>
@@ -11988,7 +11997,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>574</v>
       </c>
@@ -12023,7 +12032,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>549</v>
       </c>
@@ -12061,7 +12070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>589</v>
       </c>
@@ -12090,7 +12099,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>590</v>
       </c>
@@ -12119,7 +12128,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>591</v>
       </c>
@@ -12148,7 +12157,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>552</v>
       </c>
@@ -12189,7 +12198,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>553</v>
       </c>
@@ -12233,7 +12242,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>554</v>
       </c>
@@ -12274,7 +12283,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>555</v>
       </c>
@@ -12315,7 +12324,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>556</v>
       </c>
@@ -12356,7 +12365,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>557</v>
       </c>
@@ -12394,7 +12403,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>598</v>
       </c>
@@ -12432,7 +12441,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>558</v>
       </c>
@@ -12473,7 +12482,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>559</v>
       </c>
@@ -12511,7 +12520,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>560</v>
       </c>
@@ -12552,7 +12561,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>561</v>
       </c>
@@ -12593,7 +12602,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>562</v>
       </c>
@@ -12634,7 +12643,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>563</v>
       </c>
@@ -12675,7 +12684,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>575</v>
       </c>
@@ -12710,7 +12719,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>576</v>
       </c>
@@ -12745,7 +12754,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>564</v>
       </c>
@@ -12783,7 +12792,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>577</v>
       </c>
@@ -12812,7 +12821,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>578</v>
       </c>
@@ -12841,7 +12850,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>579</v>
       </c>
@@ -12870,7 +12879,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>402</v>
       </c>
@@ -12908,7 +12917,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>406</v>
       </c>
@@ -12946,7 +12955,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>408</v>
       </c>
@@ -12984,7 +12993,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>411</v>
       </c>
@@ -13022,7 +13031,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>414</v>
       </c>
@@ -13060,7 +13069,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>417</v>
       </c>
@@ -13095,7 +13104,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>419</v>
       </c>
@@ -13133,7 +13142,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>421</v>
       </c>
@@ -13171,7 +13180,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>423</v>
       </c>
@@ -13209,7 +13218,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>426</v>
       </c>
@@ -13247,7 +13256,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>428</v>
       </c>
@@ -13285,7 +13294,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>431</v>
       </c>
@@ -13323,7 +13332,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>432</v>
       </c>
@@ -13352,7 +13361,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>434</v>
       </c>
@@ -13384,7 +13393,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>438</v>
       </c>
@@ -13413,7 +13422,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>440</v>
       </c>
@@ -13442,7 +13451,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>442</v>
       </c>
@@ -13471,7 +13480,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>444</v>
       </c>
@@ -13503,7 +13512,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>446</v>
       </c>
@@ -13538,7 +13547,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>448</v>
       </c>
@@ -13573,7 +13582,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>450</v>
       </c>
@@ -13608,7 +13617,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>452</v>
       </c>
@@ -13640,7 +13649,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>455</v>
       </c>
@@ -13672,7 +13681,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>457</v>
       </c>
@@ -13707,7 +13716,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>459</v>
       </c>
@@ -13736,7 +13745,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>461</v>
       </c>
@@ -13768,7 +13777,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>463</v>
       </c>
@@ -13803,7 +13812,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>465</v>
       </c>
@@ -13838,7 +13847,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>467</v>
       </c>
@@ -13873,7 +13882,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>469</v>
       </c>
@@ -13908,7 +13917,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>471</v>
       </c>
@@ -13943,7 +13952,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>473</v>
       </c>
@@ -13978,7 +13987,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>480</v>
       </c>
@@ -14013,7 +14022,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>481</v>
       </c>
@@ -14048,7 +14057,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>483</v>
       </c>
@@ -14083,7 +14092,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>485</v>
       </c>
@@ -14118,7 +14127,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>487</v>
       </c>
@@ -14153,7 +14162,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>488</v>
       </c>
@@ -14188,7 +14197,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>489</v>
       </c>
@@ -14223,7 +14232,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>490</v>
       </c>
@@ -14255,7 +14264,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>492</v>
       </c>
@@ -14290,7 +14299,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>494</v>
       </c>
@@ -14325,7 +14334,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>593</v>
       </c>
@@ -14360,7 +14369,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>607</v>
       </c>
@@ -14395,7 +14404,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>708</v>
       </c>
@@ -14421,7 +14430,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>715</v>
       </c>
@@ -14450,7 +14459,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>716</v>
       </c>
@@ -14479,7 +14488,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>717</v>
       </c>
@@ -14508,7 +14517,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>718</v>
       </c>
@@ -14537,7 +14546,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>719</v>
       </c>
@@ -14566,7 +14575,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>720</v>
       </c>
@@ -14589,7 +14598,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>721</v>
       </c>
@@ -14612,7 +14621,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>722</v>
       </c>
@@ -14635,7 +14644,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>723</v>
       </c>
@@ -14658,7 +14667,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>724</v>
       </c>
@@ -14681,7 +14690,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>735</v>
       </c>
@@ -14710,7 +14719,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>738</v>
       </c>
@@ -14751,7 +14760,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>748</v>
       </c>
@@ -14780,7 +14789,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>170</v>
       </c>
@@ -14824,7 +14833,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>97</v>
       </c>
@@ -14868,7 +14877,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>256</v>
       </c>
@@ -14912,7 +14921,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>266</v>
       </c>
@@ -14956,7 +14965,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>70</v>
       </c>
@@ -15000,7 +15009,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>746</v>
       </c>
@@ -15035,7 +15044,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>744</v>
       </c>
@@ -15070,7 +15079,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>69</v>
       </c>
@@ -15114,7 +15123,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>75</v>
       </c>
@@ -15158,7 +15167,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>253</v>
       </c>
@@ -15202,7 +15211,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>237</v>
       </c>
@@ -15246,7 +15255,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>268</v>
       </c>
@@ -15290,7 +15299,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>260</v>
       </c>
@@ -15331,7 +15340,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -15375,7 +15384,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>771</v>
       </c>
@@ -15419,7 +15428,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>772</v>
       </c>
@@ -15463,7 +15472,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>773</v>
       </c>
@@ -15507,7 +15516,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>774</v>
       </c>
@@ -15551,7 +15560,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>775</v>
       </c>
@@ -15595,7 +15604,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>782</v>
       </c>
@@ -15636,7 +15645,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>783</v>
       </c>
@@ -15677,7 +15686,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>784</v>
       </c>
@@ -15718,7 +15727,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="362" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>785</v>
       </c>
@@ -15759,7 +15768,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>786</v>
       </c>
@@ -15803,7 +15812,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>787</v>
       </c>
@@ -15844,7 +15853,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>788</v>
       </c>
@@ -15877,7 +15886,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N365" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}"/>
+  <autoFilter ref="A1:N365" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="TIME"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="FTT-H"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A116:N338">
+      <sortCondition ref="D1:D365"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
